--- a/frontend/src/assets/planilha.xlsx
+++ b/frontend/src/assets/planilha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>nome</t>
   </si>
@@ -25,7 +25,13 @@
     <t>e-mail</t>
   </si>
   <si>
-    <t/>
+    <t>Contato 6</t>
+  </si>
+  <si>
+    <t>contato6@12345.com</t>
+  </si>
+  <si>
+    <t>Contato 12</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -89,14 +95,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,9 +415,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="21.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -432,20 +432,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
